--- a/Trunk_tools/Table/item.xlsx
+++ b/Trunk_tools/Table/item.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCFE22B-8FA4-4449-AD83-46D7A81500E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>EN</t>
   </si>
@@ -76,14 +77,27 @@
   <si>
     <t>决定了物品的用途
 1表示正常物品
-2表示任务物品</t>
+2表示消耗品
+3表示任务物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织造命运之碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一片一片这样的碎片组成了这样的世界</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,26 +418,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
@@ -494,6 +508,20 @@
       </c>
       <c r="E5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Trunk_tools/Table/item.xlsx
+++ b/Trunk_tools/Table/item.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCFE22B-8FA4-4449-AD83-46D7A81500E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE039B-0113-4606-AA52-81A3293FB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>EN</t>
   </si>
@@ -90,7 +90,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一片一片这样的碎片组成了这样的世界</t>
+    <t>stackMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品堆叠上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一片一片组成了现在的世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可窥探之物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如同深渊一般，没有人能够窥探到它之后的真实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示物品最大堆叠数量
+1为不允许堆叠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,10 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,109 +447,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Trunk_tools/Table/item.xlsx
+++ b/Trunk_tools/Table/item.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE039B-0113-4606-AA52-81A3293FB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>EN</t>
   </si>
@@ -72,57 +71,71 @@
   </si>
   <si>
     <t>物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品堆叠上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示物品最大堆叠数量
+1为不允许堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧楔（测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊元素凝聚而成的楔状晶体，能够同质融合与分离，极其便于拆分，这一特性使其成为广泛使用的货币。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>决定了物品的用途
 1表示正常物品
-2表示消耗品
-3表示任务物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>织造命运之碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stackMaxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品堆叠上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一片一片组成了现在的世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可窥探之物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如同深渊一般，没有人能够窥探到它之后的真实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示物品最大堆叠数量
-1为不允许堆叠</t>
+2表示可使用消耗品
+3表示不可使用消耗品
+4表示任务物品
+999表示货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来代替普通货币的虚拟字节流，具有唯一性和可追溯性。在交易和存储中提供了高度的安全性和可靠性，每单位码茵都有唯一标识，无法被复制或伪造。其可追溯性使得所有交易记录透明且可验证，为用户提供了可信的交易环境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码茵（测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反面教材（测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试互动按钮和堆叠显示的反面教材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,14 +459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,17 +475,17 @@
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -492,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -532,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -552,41 +565,58 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>210000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="F7" s="1">
-        <v>999</v>
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
